--- a/data/trans_bre/P16A05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>551,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>257,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,68; 3,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 1,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 3,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,14; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,59; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,8%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 1,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 1,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 2,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 2,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,69; 113,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,37; 121,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,66; 195,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,58; 477,81</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>197,98%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,84%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,05; 4,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 4,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 4,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 3,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,65; 663,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,24; 248,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,66; 233,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,89; 167,14</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>130,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,99%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,31; 6,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,55; 7,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 6,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 6,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,3; 327,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,88; 265,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,23; 210,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,69; 126,06</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,64%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>213,21%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>110,82%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>114,31%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,33; 7,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,94; 10,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,66; 10,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,84; 9,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,3; 256,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>80,9; 497,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,73; 230,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,36; 201,43</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>91,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>152,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,09%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,7; 6,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,34; 8,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,57; 10,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,47; 10,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,91; 155,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,09; 191,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>68,49; 287,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,33; 175,2</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,51%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,42%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,34%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>91,41%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,76; 3,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,68; 4,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,05; 5,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,83; 5,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,07; 164,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>67,04; 166,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>77,07; 173,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,56; 133,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,33</t>
+          <t>0,0; 4,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>61,8%</t>
+          <t>28,4%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 2,99</t>
+          <t>-1,64; 2,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-55,58; 477,81</t>
+          <t>-64,59; 405,64</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>50,84%</t>
+          <t>50,83%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 3,88</t>
+          <t>-0,8; 3,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 167,14</t>
+          <t>-18,53; 166,33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,99%</t>
+          <t>68,38%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 6,15</t>
+          <t>0,02; 7,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 126,06</t>
+          <t>-0,78; 300,18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>114,31%</t>
+          <t>114,2%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,84; 9,36</t>
+          <t>3,78; 9,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>53,36; 201,43</t>
+          <t>53,95; 202,91</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,33</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>64,67%</t>
+          <t>118,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,39%</t>
+          <t>105,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>152,58%</t>
+          <t>213,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>112,09%</t>
+          <t>75,87%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,91</t>
+          <t>1,73; 9,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,34; 8,92</t>
+          <t>1,01; 9,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,57; 10,38</t>
+          <t>4,46; 12,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,47; 10,07</t>
+          <t>-2,84; 9,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,91; 155,52</t>
+          <t>19,99; 316,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,09; 191,39</t>
+          <t>8,27; 294,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>68,49; 287,15</t>
+          <t>73,91; 503,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>39,33; 175,2</t>
+          <t>-42,01; 197,98</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>106,51%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>112,42%</t>
+          <t>73,38%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>119,34%</t>
+          <t>101,35%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>91,41%</t>
+          <t>104,7%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-3,39; 5,55</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-0,12; 10,59</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1,76; 10,93</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4,98; 12,41</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-39,45; 120,2</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-2,49; 214,18</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>22,93; 250,87</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>48,6; 206,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2,75</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3,77</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4,15</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3,86</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>106,51%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>112,42%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>119,34%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>94,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>1,76; 3,63</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>2,68; 4,88</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>3,05; 5,37</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>2,83; 5,29</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2,4; 5,19</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>58,07; 164,05</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>67,04; 166,85</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>77,07; 173,3</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>56,56; 133,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>54,7; 152,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16A05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Edad-trans_bre.xlsx
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,77</t>
+          <t>0,78; 3,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,66</t>
+          <t>-0,69; 1,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 3,28</t>
+          <t>0,01; 3,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,34</t>
+          <t>0,0; 4,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,14; —</t>
+          <t>47,77; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-100,0; 902,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-57,59; —</t>
+          <t>-53,73; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,27</t>
+          <t>-1,37; 1,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 1,92</t>
+          <t>-1,78; 2,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 2,32</t>
+          <t>-0,89; 2,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,3</t>
+          <t>-1,76; 2,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,69; 113,04</t>
+          <t>-60,57; 112,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,37; 121,61</t>
+          <t>-53,31; 152,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,66; 195,02</t>
+          <t>-39,39; 241,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-64,59; 405,64</t>
+          <t>-77,07; 399,03</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,52</t>
+          <t>0,8; 4,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 4,86</t>
+          <t>0,68; 5,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,85</t>
+          <t>0,38; 4,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 3,88</t>
+          <t>-0,49; 3,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,65; 663,91</t>
+          <t>19,46; 625,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 248,22</t>
+          <t>6,87; 263,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,66; 233,03</t>
+          <t>8,66; 243,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 166,33</t>
+          <t>-13,78; 172,35</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 6,65</t>
+          <t>1,04; 6,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 7,57</t>
+          <t>1,66; 7,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 6,44</t>
+          <t>0,9; 6,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,02; 7,71</t>
+          <t>0,45; 8,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,3; 327,76</t>
+          <t>20,38; 336,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,88; 265,72</t>
+          <t>24,96; 244,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,23; 210,69</t>
+          <t>13,17; 211,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 300,18</t>
+          <t>6,22; 319,56</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 7,32</t>
+          <t>0,08; 6,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,94; 10,73</t>
+          <t>3,99; 11,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,66; 10,68</t>
+          <t>3,03; 11,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,78; 9,26</t>
+          <t>4,07; 9,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,3; 256,73</t>
+          <t>-0,11; 241,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>80,9; 497,83</t>
+          <t>75,43; 519,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,73; 230,07</t>
+          <t>37,4; 249,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>53,95; 202,91</t>
+          <t>54,9; 216,42</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,73; 9,81</t>
+          <t>2,21; 10,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 9,9</t>
+          <t>1,31; 9,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,46; 12,73</t>
+          <t>4,48; 12,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 9,1</t>
+          <t>-2,73; 9,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,99; 316,69</t>
+          <t>22,28; 328,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,27; 294,75</t>
+          <t>8,08; 302,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>73,91; 503,02</t>
+          <t>69,62; 524,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-42,01; 197,98</t>
+          <t>-36,45; 201,32</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 5,55</t>
+          <t>-3,88; 5,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 10,59</t>
+          <t>-0,35; 10,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,76; 10,93</t>
+          <t>1,7; 11,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,98; 12,41</t>
+          <t>4,94; 11,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-39,45; 120,2</t>
+          <t>-38,76; 126,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 214,18</t>
+          <t>-6,71; 205,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,93; 250,87</t>
+          <t>17,84; 267,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>48,6; 206,54</t>
+          <t>46,4; 187,16</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,63</t>
+          <t>1,78; 3,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,68; 4,88</t>
+          <t>2,52; 4,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,05; 5,37</t>
+          <t>3,02; 5,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,19</t>
+          <t>2,33; 5,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>58,07; 164,05</t>
+          <t>57,93; 164,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>67,04; 166,85</t>
+          <t>63,66; 167,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>77,07; 173,3</t>
+          <t>77,32; 173,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>54,7; 152,07</t>
+          <t>54,4; 155,71</t>
         </is>
       </c>
     </row>
